--- a/ucberkeley_ee.xlsx
+++ b/ucberkeley_ee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>05</t>
   </si>
@@ -67,6 +67,9 @@
     <t>communication systems</t>
   </si>
   <si>
+    <t>offered alternate</t>
+  </si>
+  <si>
     <t>sp staff</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>physical quantities</t>
   </si>
   <si>
+    <t>information theory</t>
+  </si>
+  <si>
     <t>upper division</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>letter-grade basis</t>
   </si>
   <si>
+    <t>semester f,sp</t>
+  </si>
+  <si>
     <t>fundamental circuit</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
     <t>nonlinear circuits</t>
   </si>
   <si>
+    <t>amplifiers operational</t>
+  </si>
+  <si>
     <t>mos transistors</t>
   </si>
   <si>
@@ -226,252 +238,267 @@
     <t>electronics laboratory</t>
   </si>
   <si>
+    <t>years sp</t>
+  </si>
+  <si>
+    <t>supervised independent</t>
+  </si>
+  <si>
+    <t>basic principles</t>
+  </si>
+  <si>
+    <t>feedback control</t>
+  </si>
+  <si>
+    <t>control sp</t>
+  </si>
+  <si>
+    <t>directed group</t>
+  </si>
+  <si>
+    <t>new developments</t>
+  </si>
+  <si>
+    <t>semiconductor devices</t>
+  </si>
+  <si>
     <t>power supplies</t>
   </si>
   <si>
-    <t>sinusoidal steady-state</t>
+    <t>devices including</t>
+  </si>
+  <si>
+    <t>other areas</t>
+  </si>
+  <si>
+    <t>operations research</t>
+  </si>
+  <si>
+    <t>computer-aided design</t>
+  </si>
+  <si>
+    <t>timing analysis</t>
+  </si>
+  <si>
+    <t>principles explored</t>
+  </si>
+  <si>
+    <t>systems mems</t>
+  </si>
+  <si>
+    <t>thin film</t>
+  </si>
+  <si>
+    <t>embedded systems</t>
+  </si>
+  <si>
+    <t>b-cat_ap:b-cat template.qxd</t>
+  </si>
+  <si>
+    <t>pm page</t>
+  </si>
+  <si>
+    <t>complex systems</t>
+  </si>
+  <si>
+    <t>laboratory assignments</t>
+  </si>
+  <si>
+    <t>classical linear</t>
+  </si>
+  <si>
+    <t>combinatorial optimization</t>
+  </si>
+  <si>
+    <t>engineering design</t>
+  </si>
+  <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>el ghaoui</t>
+  </si>
+  <si>
+    <t>system design</t>
+  </si>
+  <si>
+    <t>f,sp el</t>
+  </si>
+  <si>
+    <t>engineering starting</t>
+  </si>
+  <si>
+    <t>resistors capacitors</t>
+  </si>
+  <si>
+    <t>inductors circuit</t>
+  </si>
+  <si>
+    <t>circuit analysis</t>
+  </si>
+  <si>
+    <t>el eng</t>
+  </si>
+  <si>
+    <t>units department</t>
+  </si>
+  <si>
+    <t>department electrical</t>
+  </si>
+  <si>
+    <t>offered fall</t>
+  </si>
+  <si>
+    <t>offered spring</t>
+  </si>
+  <si>
+    <t>department computer</t>
+  </si>
+  <si>
+    <t>undergraduate term</t>
+  </si>
+  <si>
+    <t>science electrical</t>
+  </si>
+  <si>
+    <t>engineering advanced</t>
+  </si>
+  <si>
+    <t>cover current</t>
+  </si>
+  <si>
+    <t>pass/not pass</t>
+  </si>
+  <si>
+    <t>engineering mechanical</t>
+  </si>
+  <si>
+    <t>science bioengineering</t>
+  </si>
+  <si>
+    <t>mos field-effect</t>
+  </si>
+  <si>
+    <t>field-effect transistors</t>
+  </si>
+  <si>
+    <t>design project</t>
+  </si>
+  <si>
+    <t>design methodologies</t>
+  </si>
+  <si>
+    <t>mems design</t>
+  </si>
+  <si>
+    <t>unit department</t>
   </si>
   <si>
     <t>power systems</t>
   </si>
   <si>
-    <t>prefix=course satisfies</t>
-  </si>
-  <si>
-    <t>basic principles</t>
-  </si>
-  <si>
-    <t>feedback control</t>
-  </si>
-  <si>
-    <t>semester f,sp</t>
-  </si>
-  <si>
-    <t>directed group</t>
-  </si>
-  <si>
-    <t>new developments</t>
-  </si>
-  <si>
-    <t>developments f,sp</t>
-  </si>
-  <si>
-    <t>curricula section</t>
+    <t>optical systems</t>
+  </si>
+  <si>
+    <t>optimization models</t>
+  </si>
+  <si>
+    <t>root locus</t>
+  </si>
+  <si>
+    <t>device fabrication</t>
+  </si>
+  <si>
+    <t>electric power</t>
+  </si>
+  <si>
+    <t>analog-to-digital converters</t>
+  </si>
+  <si>
+    <t>systems analysis</t>
+  </si>
+  <si>
+    <t>fundamental techniques</t>
+  </si>
+  <si>
+    <t>nguyen pister</t>
+  </si>
+  <si>
+    <t>spring offered</t>
+  </si>
+  <si>
+    <t>circuit level</t>
+  </si>
+  <si>
+    <t>systems catalog</t>
+  </si>
+  <si>
+    <t>circuits catalog</t>
+  </si>
+  <si>
+    <t>digital design</t>
+  </si>
+  <si>
+    <t>description group</t>
+  </si>
+  <si>
+    <t>developments units</t>
+  </si>
+  <si>
+    <t>devices catalog</t>
+  </si>
+  <si>
+    <t>information devices</t>
+  </si>
+  <si>
+    <t>kinematics dynamics</t>
+  </si>
+  <si>
+    <t>engineering catalog</t>
+  </si>
+  <si>
+    <t>electronics catalog</t>
+  </si>
+  <si>
+    <t>description introduction</t>
+  </si>
+  <si>
+    <t>modern digital</t>
+  </si>
+  <si>
+    <t>modern information</t>
+  </si>
+  <si>
+    <t>real world</t>
+  </si>
+  <si>
+    <t>core eecs</t>
+  </si>
+  <si>
+    <t>mathematical maturity</t>
+  </si>
+  <si>
+    <t>active perception</t>
+  </si>
+  <si>
+    <t>force control</t>
+  </si>
+  <si>
+    <t>control systems</t>
+  </si>
+  <si>
+    <t>exercises units</t>
+  </si>
+  <si>
+    <t>description overview</t>
+  </si>
+  <si>
+    <t>communications catalog</t>
   </si>
   <si>
     <t>digital systems</t>
   </si>
   <si>
-    <t>engineering f,sp</t>
-  </si>
-  <si>
-    <t>semiconductor devices</t>
-  </si>
-  <si>
-    <t>information theory</t>
-  </si>
-  <si>
-    <t>devices including</t>
-  </si>
-  <si>
-    <t>other areas</t>
-  </si>
-  <si>
-    <t>operations research</t>
-  </si>
-  <si>
-    <t>computer-aided design</t>
-  </si>
-  <si>
-    <t>timing analysis</t>
-  </si>
-  <si>
-    <t>systems mems</t>
-  </si>
-  <si>
-    <t>thin film</t>
-  </si>
-  <si>
-    <t>embedded systems</t>
-  </si>
-  <si>
-    <t>ter f,sp</t>
-  </si>
-  <si>
-    <t>engineering starting</t>
-  </si>
-  <si>
-    <t>resistors capacitors</t>
-  </si>
-  <si>
-    <t>offered alternate</t>
-  </si>
-  <si>
-    <t>b-cat_ap:b-cat template.qxd</t>
-  </si>
-  <si>
-    <t>pm page</t>
-  </si>
-  <si>
-    <t>complex systems</t>
-  </si>
-  <si>
-    <t>laboratory assignments</t>
-  </si>
-  <si>
-    <t>combinatorial optimization</t>
-  </si>
-  <si>
-    <t>engineering design</t>
-  </si>
-  <si>
-    <t>machine learning</t>
-  </si>
-  <si>
-    <t>system design</t>
-  </si>
-  <si>
-    <t>inductors circuit</t>
-  </si>
-  <si>
-    <t>circuit analysis</t>
-  </si>
-  <si>
-    <t>taught using</t>
-  </si>
-  <si>
-    <t>kirchhoffs voltage</t>
-  </si>
-  <si>
-    <t>current laws</t>
-  </si>
-  <si>
-    <t>norton equivalents</t>
-  </si>
-  <si>
-    <t>units department</t>
-  </si>
-  <si>
-    <t>offered fall</t>
-  </si>
-  <si>
-    <t>offered spring</t>
-  </si>
-  <si>
-    <t>department computer</t>
-  </si>
-  <si>
-    <t>undergraduate term</t>
-  </si>
-  <si>
-    <t>engineering advanced</t>
-  </si>
-  <si>
-    <t>pass/not pass</t>
-  </si>
-  <si>
-    <t>science bioengineering</t>
-  </si>
-  <si>
-    <t>field-effect transistors</t>
-  </si>
-  <si>
-    <t>design project</t>
-  </si>
-  <si>
-    <t>design methodologies</t>
-  </si>
-  <si>
-    <t>el ghaoui</t>
-  </si>
-  <si>
-    <t>mems design</t>
-  </si>
-  <si>
-    <t>unit department</t>
-  </si>
-  <si>
-    <t>optical systems</t>
-  </si>
-  <si>
-    <t>optimization models</t>
-  </si>
-  <si>
-    <t>device fabrication</t>
-  </si>
-  <si>
-    <t>electric power</t>
-  </si>
-  <si>
-    <t>analog-to-digital converters</t>
-  </si>
-  <si>
-    <t>systems analysis</t>
-  </si>
-  <si>
-    <t>fundamental techniques</t>
-  </si>
-  <si>
-    <t>nguyen pister</t>
-  </si>
-  <si>
-    <t>spring offered</t>
-  </si>
-  <si>
-    <t>circuit level</t>
-  </si>
-  <si>
-    <t>cad tools</t>
-  </si>
-  <si>
-    <t>power conversion</t>
-  </si>
-  <si>
-    <t>fundamental principles</t>
-  </si>
-  <si>
-    <t>digital design</t>
-  </si>
-  <si>
-    <t>description group</t>
-  </si>
-  <si>
-    <t>developments units</t>
-  </si>
-  <si>
-    <t>information devices</t>
-  </si>
-  <si>
-    <t>kinematics dynamics</t>
-  </si>
-  <si>
-    <t>description introduction</t>
-  </si>
-  <si>
-    <t>modern information</t>
-  </si>
-  <si>
-    <t>real world</t>
-  </si>
-  <si>
-    <t>mathematical maturity</t>
-  </si>
-  <si>
-    <t>active perception</t>
-  </si>
-  <si>
-    <t>force control</t>
-  </si>
-  <si>
-    <t>control systems</t>
-  </si>
-  <si>
-    <t>exercises units</t>
-  </si>
-  <si>
-    <t>description overview</t>
-  </si>
-  <si>
     <t>description advanced</t>
   </si>
   <si>
@@ -484,49 +511,25 @@
     <t>paper/pencil exercises</t>
   </si>
   <si>
+    <t>seminar catalog</t>
+  </si>
+  <si>
+    <t>laboratory catalog</t>
+  </si>
+  <si>
+    <t>processing catalog</t>
+  </si>
+  <si>
     <t>random variables</t>
   </si>
   <si>
+    <t>optimization catalog</t>
+  </si>
+  <si>
     <t>basic physics</t>
   </si>
   <si>
     <t>lab exercises</t>
-  </si>
-  <si>
-    <t>control units</t>
-  </si>
-  <si>
-    <t>risc-v processor</t>
-  </si>
-  <si>
-    <t>control design</t>
-  </si>
-  <si>
-    <t>design modeling</t>
-  </si>
-  <si>
-    <t>robot manipulators</t>
-  </si>
-  <si>
-    <t>robotic vision</t>
-  </si>
-  <si>
-    <t>inverse kinematics</t>
-  </si>
-  <si>
-    <t>serial chain</t>
-  </si>
-  <si>
-    <t>chain manipulators</t>
-  </si>
-  <si>
-    <t>jacobian force</t>
-  </si>
-  <si>
-    <t>force relations</t>
-  </si>
-  <si>
-    <t>relations dynamics</t>
   </si>
 </sst>
 </file>
@@ -884,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O158"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,34 +1083,34 @@
         <v>17</v>
       </c>
       <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
       <c r="H5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1133,16 +1136,16 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -1151,22 +1154,22 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1180,40 +1183,40 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1221,46 +1224,46 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1292,22 +1295,22 @@
         <v>12</v>
       </c>
       <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>7</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1315,34 +1318,34 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1368,22 +1371,22 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1415,22 +1418,22 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1462,22 +1465,22 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1509,10 +1512,10 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1521,16 +1524,16 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1556,28 +1559,28 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1597,46 +1600,46 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1662,28 +1665,28 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1697,40 +1700,40 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1750,22 +1753,22 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -1791,10 +1794,10 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1809,22 +1812,22 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1838,22 +1841,22 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1885,40 +1888,40 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1932,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1944,28 +1947,28 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1979,16 +1982,16 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2020,22 +2023,22 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2067,28 +2070,28 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2120,10 +2123,10 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2132,10 +2135,10 @@
         <v>3</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2173,10 +2176,10 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2214,22 +2217,22 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2261,22 +2264,22 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2308,40 +2311,40 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2355,22 +2358,22 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2402,40 +2405,40 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2514,22 +2517,22 @@
         <v>3</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2543,16 +2546,16 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2602,28 +2605,28 @@
         <v>3</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2696,10 +2699,10 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2743,16 +2746,16 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2778,40 +2781,40 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2843,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2872,10 +2875,10 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -2884,28 +2887,28 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2913,28 +2916,28 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2960,34 +2963,34 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -3025,10 +3028,10 @@
         <v>2</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3072,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3119,10 +3122,10 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3301,22 +3304,22 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -3348,16 +3351,16 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3401,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3442,16 +3445,16 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3483,22 +3486,22 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3530,10 +3533,10 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3577,28 +3580,28 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3689,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3718,10 +3721,10 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3765,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3836,16 +3839,16 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3859,16 +3862,16 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3906,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3930,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3953,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3977,16 +3980,16 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4071,16 +4074,16 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4094,40 +4097,40 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O69">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4141,28 +4144,28 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -4194,34 +4197,34 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4241,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -4259,16 +4262,16 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4294,28 +4297,28 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4341,28 +4344,28 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4388,16 +4391,16 @@
         <v>3</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -4488,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -4535,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -4576,28 +4579,28 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4617,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -4629,22 +4632,22 @@
         <v>4</v>
       </c>
       <c r="J80">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4664,16 +4667,16 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4711,34 +4714,34 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4758,22 +4761,22 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -4811,16 +4814,16 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -4911,10 +4914,10 @@
         <v>4</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -4952,16 +4955,16 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L87">
         <v>6</v>
@@ -4999,16 +5002,16 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -5046,28 +5049,28 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5093,16 +5096,16 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -5140,28 +5143,28 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5187,28 +5190,28 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O92">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5328,16 +5331,16 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -5375,16 +5378,16 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -5422,16 +5425,16 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -5469,16 +5472,16 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -5522,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="K99">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -5569,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="K100">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -5616,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K101">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -5663,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K102">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -5710,22 +5713,22 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K103">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5763,16 +5766,16 @@
         <v>11</v>
       </c>
       <c r="L104">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M104">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N104">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O104">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5851,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K106">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -5898,22 +5901,22 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5951,16 +5954,16 @@
         <v>5</v>
       </c>
       <c r="L108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O108">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5998,16 +6001,16 @@
         <v>5</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -6045,16 +6048,16 @@
         <v>5</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6133,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -6280,16 +6283,16 @@
         <v>4</v>
       </c>
       <c r="L115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6421,16 +6424,16 @@
         <v>4</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6697,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -6744,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -6797,16 +6800,16 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M126">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N126">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O126">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -6844,16 +6847,16 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M127">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N127">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O127">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -6891,16 +6894,16 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O128">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -6938,16 +6941,16 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N129">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O129">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -6985,16 +6988,16 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N130">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O130">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -7032,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O131">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -7079,16 +7082,16 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M132">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N132">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O132">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -7126,16 +7129,16 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M133">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N133">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O133">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -7173,16 +7176,16 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M134">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N134">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O134">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -7220,16 +7223,16 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O135">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -7267,16 +7270,16 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O136">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -7314,16 +7317,16 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O137">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:15">
@@ -7502,16 +7505,16 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O141">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -7549,16 +7552,16 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N142">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -7596,16 +7599,16 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N143">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -7643,16 +7646,16 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N144">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -7690,16 +7693,16 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O145">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -7737,16 +7740,16 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N146">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O146">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -7784,16 +7787,16 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N147">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O147">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -7831,16 +7834,16 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O148">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -7878,16 +7881,16 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N149">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O149">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -7931,7 +7934,7 @@
         <v>5</v>
       </c>
       <c r="N150">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O150">
         <v>5</v>
@@ -7972,16 +7975,16 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N151">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:15">
@@ -8019,16 +8022,16 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N152">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O152">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -8066,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N153">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:15">
@@ -8113,16 +8116,16 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N154">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -8160,16 +8163,16 @@
         <v>0</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N155">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O155">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:15">
@@ -8207,16 +8210,16 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O156">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:15">
@@ -8254,16 +8257,16 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:15">
@@ -8301,16 +8304,63 @@
         <v>0</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N158">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>5</v>
+      </c>
+      <c r="M159">
+        <v>5</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
